--- a/cases/demos/D4 - multi hub net cen.xlsx
+++ b/cases/demos/D4 - multi hub net cen.xlsx
@@ -1976,6 +1976,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2317,11 +2318,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="86633088"/>
-        <c:axId val="92086656"/>
+        <c:axId val="112188032"/>
+        <c:axId val="114495872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="86633088"/>
+        <c:axId val="112188032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2331,12 +2332,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92086656"/>
+        <c:crossAx val="114495872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="92086656"/>
+        <c:axId val="114495872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2347,13 +2348,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86633088"/>
+        <c:crossAx val="112188032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2383,6 +2385,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2724,11 +2727,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="92476544"/>
-        <c:axId val="92478080"/>
+        <c:axId val="115147904"/>
+        <c:axId val="115149440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="92476544"/>
+        <c:axId val="115147904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2738,12 +2741,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92478080"/>
+        <c:crossAx val="115149440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="92478080"/>
+        <c:axId val="115149440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2754,13 +2757,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92476544"/>
+        <c:crossAx val="115147904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3133,7 +3137,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -3207,7 +3211,9 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -4850,7 +4856,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -5370,7 +5376,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
